--- a/df_list_20250102.xlsx
+++ b/df_list_20250102.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="136">
   <si>
     <t>SITE_NO</t>
   </si>
@@ -310,16 +310,131 @@
   </si>
   <si>
     <t>[공고(일반공고)]진도군 재해영향평가심의위원회 위원 공개모집 공고</t>
+  </si>
+  <si>
+    <t>A047</t>
+  </si>
+  <si>
+    <t>경기도_김포시</t>
+  </si>
+  <si>
+    <t>https://www.gimpo.go.kr/portal/ntfcPblancList.do?key=1004&amp;cate_cd=1&amp;searchCnd=40900000000&amp;pageUnit=90</t>
+  </si>
+  <si>
+    <t>『김포반다비체육센터 및 대곶문화복지센터 민간위탁관리』제안서 평가위원회 평가결과 공고</t>
+  </si>
+  <si>
+    <t>A173</t>
+  </si>
+  <si>
+    <t>경상도_영양군</t>
+  </si>
+  <si>
+    <t>https://www.yyg.go.kr/www/organization/yyg_news/notification?page=1</t>
+  </si>
+  <si>
+    <t>「영양군 농촌공간 재구조화 및 재생 기본계획 수립용역」제안서 ..새로운글</t>
+  </si>
+  <si>
+    <t>구로구 관내 사각형거 보수공사 특정공법(선정) 가격제안서 제출 안내 공고</t>
+  </si>
+  <si>
+    <t>A025</t>
+  </si>
+  <si>
+    <t>경기고시공고</t>
+  </si>
+  <si>
+    <t>https://www.gg.go.kr/bbs/board.do?bsIdx=469&amp;menuId=1547#page=2</t>
+  </si>
+  <si>
+    <t>경기지역화폐 공동운영대행사 선정 제안서평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>https://www.jeonnam.go.kr/J0203/boardList.do?menuId=jeonnam0203000000&amp;pageIndex=2</t>
+  </si>
+  <si>
+    <t>A031</t>
+  </si>
+  <si>
+    <t>경북고시공고</t>
+  </si>
+  <si>
+    <t>https://www.gb.go.kr/Main/page.do?mnu_uid=6789&amp;LARGE_CODE=720&amp;MEDIUM_CODE=50&amp;SMALL_CODE=10&amp;SMALL_CODE2=30&amp;Start=0</t>
+  </si>
+  <si>
+    <t>2025년 민방위 사이버 교육 사전 검토 심의자료 제출 안내사항 공고</t>
+  </si>
+  <si>
+    <t>고양시 고향사랑기금운용심의위원회 위원 모집 기간연장 공고</t>
+  </si>
+  <si>
+    <t>https://www.chuncheon.go.kr/cityhall/administrative-info/notice-info/notice-announcement/?pageIndex=3</t>
+  </si>
+  <si>
+    <t>A090</t>
+  </si>
+  <si>
+    <t>강원도_홍천군</t>
+  </si>
+  <si>
+    <t>https://www.hongcheon.go.kr/www/selectEminwonList.do?key=278&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>홍천군 재해영향평가심의위원회 위원 공개모집 공고</t>
+  </si>
+  <si>
+    <t>https://www.mokpo.go.kr/www/mokpo_news/notification/public_notice?page=2</t>
+  </si>
+  <si>
+    <t>https://www.yeosu.go.kr/www/govt/news/notify?page=4</t>
+  </si>
+  <si>
+    <t>A156</t>
+  </si>
+  <si>
+    <t>전라도_해남군</t>
+  </si>
+  <si>
+    <t>https://www.haenam.go.kr/planweb/board/list.9is?contentUid=18e3368f5d745106015de961fbbd205e&amp;boardUid=18e3368f644b01470164eeb23d7b30f5&amp;contentUid=18e3368f5d745106015de961fbbd205e</t>
+  </si>
+  <si>
+    <t>해남군 고향사랑답례품선정심의위원회 위원 모집 재공고파일NEW</t>
+  </si>
+  <si>
+    <t>A164</t>
+  </si>
+  <si>
+    <t>경상도_안동시</t>
+  </si>
+  <si>
+    <t>https://www.andong.go.kr/portal/saeol/gosi/list.do?mId=0401020100</t>
+  </si>
+  <si>
+    <t>「제21회 대한민국청소년박람회 지역특화행사 대행 용역」제안서 평가위원(후보자) 공개모집</t>
+  </si>
+  <si>
+    <t>A208</t>
+  </si>
+  <si>
+    <t>경상도_고성군</t>
+  </si>
+  <si>
+    <t>https://www.goseong.go.kr/board/list.goseong?boardId=BBS_0000015&amp;menuCd=DOM_000000103001014000&amp;contentsSid=29&amp;cpath=&amp;startPage=1</t>
+  </si>
+  <si>
+    <t>고성탈박물관 전시설계 및 제작 설치사업 제안서 평가결과 공고 의뢰</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -341,6 +456,10 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="2">
@@ -371,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -381,6 +500,15 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1265,56 +1393,1006 @@
         <v>45659.61597222222</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="7">
+        <v>45657.0</v>
+      </c>
+      <c r="F34" s="7">
+        <v>45659.908796296295</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" s="7">
+        <v>45657.0</v>
+      </c>
+      <c r="F35" s="7">
+        <v>45659.908796296295</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="7">
+        <v>45657.0</v>
+      </c>
+      <c r="F36" s="7">
+        <v>45659.908796296295</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="7">
+        <v>45657.0</v>
+      </c>
+      <c r="F37" s="7">
+        <v>45659.908796296295</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E38" s="7">
+        <v>45659.0</v>
+      </c>
+      <c r="F38" s="7">
+        <v>45659.908796296295</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="7">
+        <v>45659.0</v>
+      </c>
+      <c r="F39" s="7">
+        <v>45659.908796296295</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="7">
+        <v>45659.0</v>
+      </c>
+      <c r="F40" s="7">
+        <v>45659.908796296295</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E41" s="7">
+        <v>45659.0</v>
+      </c>
+      <c r="F41" s="7">
+        <v>45659.908796296295</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="7">
+        <v>45657.0</v>
+      </c>
+      <c r="F42" s="7">
+        <v>45659.908796296295</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="7">
+        <v>45657.0</v>
+      </c>
+      <c r="F43" s="7">
+        <v>45659.908796296295</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="7">
+        <v>45659.0</v>
+      </c>
+      <c r="F44" s="7">
+        <v>45659.908796296295</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="7">
+        <v>45659.0</v>
+      </c>
+      <c r="F45" s="7">
+        <v>45659.908796296295</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" s="7">
+        <v>45659.0</v>
+      </c>
+      <c r="F46" s="7">
+        <v>45659.908796296295</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E47" s="7">
+        <v>45657.0</v>
+      </c>
+      <c r="F47" s="7">
+        <v>45659.908796296295</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E48" s="7">
+        <v>45659.0</v>
+      </c>
+      <c r="F48" s="7">
+        <v>45659.908796296295</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E49" s="7">
+        <v>45659.0</v>
+      </c>
+      <c r="F49" s="7">
+        <v>45659.908796296295</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="7">
+        <v>45657.0</v>
+      </c>
+      <c r="F50" s="7">
+        <v>45659.908796296295</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E51" s="7">
+        <v>45659.0</v>
+      </c>
+      <c r="F51" s="7">
+        <v>45659.908796296295</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E52" s="7">
+        <v>45657.0</v>
+      </c>
+      <c r="F52" s="7">
+        <v>45659.908796296295</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E53" s="7">
+        <v>45659.0</v>
+      </c>
+      <c r="F53" s="7">
+        <v>45659.908796296295</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E54" s="7">
+        <v>45657.0</v>
+      </c>
+      <c r="F54" s="7">
+        <v>45659.908796296295</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E55" s="7">
+        <v>45659.0</v>
+      </c>
+      <c r="F55" s="7">
+        <v>45659.908796296295</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E56" s="7">
+        <v>45657.0</v>
+      </c>
+      <c r="F56" s="7">
+        <v>45659.908796296295</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E57" s="7">
+        <v>45659.0</v>
+      </c>
+      <c r="F57" s="7">
+        <v>45659.908796296295</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E58" s="7">
+        <v>45657.0</v>
+      </c>
+      <c r="F58" s="7">
+        <v>45659.908796296295</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E59" s="7">
+        <v>45659.0</v>
+      </c>
+      <c r="F59" s="7">
+        <v>45659.908796296295</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E60" s="7">
+        <v>45657.0</v>
+      </c>
+      <c r="F60" s="7">
+        <v>45659.908796296295</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E61" s="7">
+        <v>45659.0</v>
+      </c>
+      <c r="F61" s="7">
+        <v>45659.908796296295</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E62" s="7">
+        <v>45657.0</v>
+      </c>
+      <c r="F62" s="7">
+        <v>45659.908796296295</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E63" s="7">
+        <v>45659.0</v>
+      </c>
+      <c r="F63" s="7">
+        <v>45659.908796296295</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E64" s="7">
+        <v>45657.0</v>
+      </c>
+      <c r="F64" s="7">
+        <v>45659.908796296295</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E65" s="7">
+        <v>45659.0</v>
+      </c>
+      <c r="F65" s="7">
+        <v>45659.908796296295</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E66" s="7">
+        <v>45657.0</v>
+      </c>
+      <c r="F66" s="7">
+        <v>45659.908796296295</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E67" s="7">
+        <v>45659.0</v>
+      </c>
+      <c r="F67" s="7">
+        <v>45659.908796296295</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E68" s="7">
+        <v>45659.0</v>
+      </c>
+      <c r="F68" s="7">
+        <v>45659.908796296295</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E69" s="7">
+        <v>45657.0</v>
+      </c>
+      <c r="F69" s="7">
+        <v>45659.908796296295</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E70" s="7">
+        <v>45657.0</v>
+      </c>
+      <c r="F70" s="7">
+        <v>45659.908796296295</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E71" s="7">
+        <v>45659.0</v>
+      </c>
+      <c r="F71" s="7">
+        <v>45659.908796296295</v>
+      </c>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E72" s="7">
+        <v>45657.0</v>
+      </c>
+      <c r="F72" s="7">
+        <v>45659.908796296295</v>
+      </c>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E73" s="7">
+        <v>45657.0</v>
+      </c>
+      <c r="F73" s="7">
+        <v>45659.908796296295</v>
+      </c>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E74" s="7">
+        <v>45659.0</v>
+      </c>
+      <c r="F74" s="7">
+        <v>45659.908796296295</v>
+      </c>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E75" s="7">
+        <v>45659.0</v>
+      </c>
+      <c r="F75" s="7">
+        <v>45659.908796296295</v>
+      </c>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E76" s="7">
+        <v>45657.0</v>
+      </c>
+      <c r="F76" s="7">
+        <v>45659.908796296295</v>
+      </c>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E77" s="7">
+        <v>45657.0</v>
+      </c>
+      <c r="F77" s="7">
+        <v>45659.908796296295</v>
+      </c>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E78" s="7">
+        <v>45658.0</v>
+      </c>
+      <c r="F78" s="7">
+        <v>45659.908796296295</v>
+      </c>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E79" s="7">
+        <v>45657.0</v>
+      </c>
+      <c r="F79" s="7">
+        <v>45659.908796296295</v>
+      </c>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E80" s="7">
+        <v>45657.0</v>
+      </c>
+      <c r="F80" s="7">
+        <v>45659.908796296295</v>
+      </c>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E81" s="7">
+        <v>45659.0</v>
+      </c>
+      <c r="F81" s="7">
+        <v>45659.908796296295</v>
+      </c>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E82" s="7">
+        <v>45659.0</v>
+      </c>
+      <c r="F82" s="7">
+        <v>45659.908796296295</v>
+      </c>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E83" s="7">
+        <v>45659.0</v>
+      </c>
+      <c r="F83" s="7">
+        <v>45659.908796296295</v>
+      </c>
+    </row>
     <row r="84" ht="15.75" customHeight="1"/>
     <row r="85" ht="15.75" customHeight="1"/>
     <row r="86" ht="15.75" customHeight="1"/>
@@ -2233,9 +3311,61 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C34"/>
+    <hyperlink r:id="rId2" ref="C35"/>
+    <hyperlink r:id="rId3" ref="C36"/>
+    <hyperlink r:id="rId4" ref="C37"/>
+    <hyperlink r:id="rId5" location="list/1" ref="C38"/>
+    <hyperlink r:id="rId6" location="list/1" ref="C39"/>
+    <hyperlink r:id="rId7" ref="C40"/>
+    <hyperlink r:id="rId8" location="page=2" ref="C41"/>
+    <hyperlink r:id="rId9" ref="C42"/>
+    <hyperlink r:id="rId10" ref="C43"/>
+    <hyperlink r:id="rId11" ref="C44"/>
+    <hyperlink r:id="rId12" ref="C45"/>
+    <hyperlink r:id="rId13" ref="C46"/>
+    <hyperlink r:id="rId14" ref="C47"/>
+    <hyperlink r:id="rId15" ref="C48"/>
+    <hyperlink r:id="rId16" ref="C49"/>
+    <hyperlink r:id="rId17" ref="C50"/>
+    <hyperlink r:id="rId18" ref="C51"/>
+    <hyperlink r:id="rId19" ref="C52"/>
+    <hyperlink r:id="rId20" ref="C53"/>
+    <hyperlink r:id="rId21" ref="C54"/>
+    <hyperlink r:id="rId22" ref="C55"/>
+    <hyperlink r:id="rId23" ref="C56"/>
+    <hyperlink r:id="rId24" ref="C57"/>
+    <hyperlink r:id="rId25" ref="C58"/>
+    <hyperlink r:id="rId26" ref="C59"/>
+    <hyperlink r:id="rId27" ref="C60"/>
+    <hyperlink r:id="rId28" ref="C61"/>
+    <hyperlink r:id="rId29" ref="C62"/>
+    <hyperlink r:id="rId30" ref="C63"/>
+    <hyperlink r:id="rId31" ref="C64"/>
+    <hyperlink r:id="rId32" ref="C65"/>
+    <hyperlink r:id="rId33" ref="C66"/>
+    <hyperlink r:id="rId34" ref="C67"/>
+    <hyperlink r:id="rId35" ref="C68"/>
+    <hyperlink r:id="rId36" ref="C69"/>
+    <hyperlink r:id="rId37" ref="C70"/>
+    <hyperlink r:id="rId38" ref="C71"/>
+    <hyperlink r:id="rId39" ref="C72"/>
+    <hyperlink r:id="rId40" ref="C73"/>
+    <hyperlink r:id="rId41" ref="C74"/>
+    <hyperlink r:id="rId42" ref="C75"/>
+    <hyperlink r:id="rId43" ref="C76"/>
+    <hyperlink r:id="rId44" ref="C77"/>
+    <hyperlink r:id="rId45" ref="C78"/>
+    <hyperlink r:id="rId46" ref="C79"/>
+    <hyperlink r:id="rId47" ref="C80"/>
+    <hyperlink r:id="rId48" ref="C81"/>
+    <hyperlink r:id="rId49" ref="C82"/>
+    <hyperlink r:id="rId50" ref="C83"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId51"/>
 </worksheet>
 </file>